--- a/Source_Data.xlsx
+++ b/Source_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xmnsh\MATH Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alsalemz/Downloads/Courses/Math 405/The Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3ED2E8-FBA5-4751-894E-B85CD9D71CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCE29B2-B95F-BB4E-9C47-E78CF248C200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14040" xr2:uid="{45BF52C2-09A4-49C5-A4DC-DEEDD2B320CF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32580" windowHeight="17800" xr2:uid="{45BF52C2-09A4-49C5-A4DC-DEEDD2B320CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,9 +35,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>*****************************</t>
-  </si>
-  <si>
-    <t>STUDENT:23: SULAYYIM, MOHAMMED ZAKI 201766890</t>
   </si>
   <si>
     <t>DayOrder</t>
@@ -61,6 +56,9 @@
   </si>
   <si>
     <t>Pin 2:</t>
+  </si>
+  <si>
+    <t>STUDENT:23: AL SALEEM, MOHAMMED ZAKI</t>
   </si>
 </sst>
 </file>
@@ -110,74 +108,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -211,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -505,38 +435,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF206082-D495-413C-B2F7-1078CCAE8767}">
   <dimension ref="A1:E442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.75" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>49.268000000000001</v>
@@ -545,9 +475,9 @@
         <v>-123.146</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>49.255899999999997</v>
@@ -556,24 +486,24 @@
         <v>-123.236</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -590,7 +520,7 @@
         <v>18.212299999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -607,7 +537,7 @@
         <v>16.102900000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -624,7 +554,7 @@
         <v>17.913599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -641,7 +571,7 @@
         <v>17.5776</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>27</v>
       </c>
@@ -658,7 +588,7 @@
         <v>17.7529</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>27</v>
       </c>
@@ -675,7 +605,7 @@
         <v>18.373100000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>30</v>
       </c>
@@ -692,7 +622,7 @@
         <v>10.0136</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>31</v>
       </c>
@@ -709,7 +639,7 @@
         <v>11.919499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31</v>
       </c>
@@ -726,7 +656,7 @@
         <v>15.3537</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>37</v>
       </c>
@@ -743,7 +673,7 @@
         <v>14.324299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>37</v>
       </c>
@@ -760,7 +690,7 @@
         <v>14.8721</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>39</v>
       </c>
@@ -777,7 +707,7 @@
         <v>13.1699</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>40</v>
       </c>
@@ -794,7 +724,7 @@
         <v>17.450099999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41</v>
       </c>
@@ -811,7 +741,7 @@
         <v>9.2901600000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>53</v>
       </c>
@@ -828,7 +758,7 @@
         <v>12.902799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>55</v>
       </c>
@@ -845,7 +775,7 @@
         <v>13.6561</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>55</v>
       </c>
@@ -862,7 +792,7 @@
         <v>14.6694</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>56</v>
       </c>
@@ -879,7 +809,7 @@
         <v>11.632</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>58</v>
       </c>
@@ -896,7 +826,7 @@
         <v>13.332599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>63</v>
       </c>
@@ -913,7 +843,7 @@
         <v>17.2973</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>66</v>
       </c>
@@ -930,7 +860,7 @@
         <v>12.3063</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>72</v>
       </c>
@@ -947,7 +877,7 @@
         <v>11.006500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>72</v>
       </c>
@@ -964,7 +894,7 @@
         <v>14.1492</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>75</v>
       </c>
@@ -981,7 +911,7 @@
         <v>17.457899999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>80</v>
       </c>
@@ -998,7 +928,7 @@
         <v>13.6038</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>82</v>
       </c>
@@ -1015,7 +945,7 @@
         <v>14.3063</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>83</v>
       </c>
@@ -1032,7 +962,7 @@
         <v>13.023999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>86</v>
       </c>
@@ -1049,7 +979,7 @@
         <v>13.344900000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>88</v>
       </c>
@@ -1066,7 +996,7 @@
         <v>14.2417</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>88</v>
       </c>
@@ -1083,7 +1013,7 @@
         <v>15.552300000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>89</v>
       </c>
@@ -1100,7 +1030,7 @@
         <v>15.6609</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>89</v>
       </c>
@@ -1117,7 +1047,7 @@
         <v>17.3096</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>90</v>
       </c>
@@ -1134,7 +1064,7 @@
         <v>21.118500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>93</v>
       </c>
@@ -1151,7 +1081,7 @@
         <v>17.710599999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>95</v>
       </c>
@@ -1168,7 +1098,7 @@
         <v>10.1172</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>100</v>
       </c>
@@ -1185,7 +1115,7 @@
         <v>15.806900000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>102</v>
       </c>
@@ -1202,7 +1132,7 @@
         <v>14.572900000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>102</v>
       </c>
@@ -1219,7 +1149,7 @@
         <v>17.974599999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>103</v>
       </c>
@@ -1236,7 +1166,7 @@
         <v>17.102799999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>107</v>
       </c>
@@ -1253,7 +1183,7 @@
         <v>16.307700000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>108</v>
       </c>
@@ -1270,7 +1200,7 @@
         <v>17.677700000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>112</v>
       </c>
@@ -1287,7 +1217,7 @@
         <v>9.3661899999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>116</v>
       </c>
@@ -1304,7 +1234,7 @@
         <v>10.324199999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>118</v>
       </c>
@@ -1321,7 +1251,7 @@
         <v>11.1518</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>121</v>
       </c>
@@ -1338,7 +1268,7 @@
         <v>10.6999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>123</v>
       </c>
@@ -1355,7 +1285,7 @@
         <v>8.5976900000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>125</v>
       </c>
@@ -1372,7 +1302,7 @@
         <v>15.5517</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>125</v>
       </c>
@@ -1389,7 +1319,7 @@
         <v>17.390699999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>126</v>
       </c>
@@ -1406,7 +1336,7 @@
         <v>10.528600000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>131</v>
       </c>
@@ -1423,7 +1353,7 @@
         <v>11.917400000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>131</v>
       </c>
@@ -1440,7 +1370,7 @@
         <v>13.3599</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>133</v>
       </c>
@@ -1457,7 +1387,7 @@
         <v>7.1538399999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>135</v>
       </c>
@@ -1474,7 +1404,7 @@
         <v>13.150600000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>136</v>
       </c>
@@ -1491,7 +1421,7 @@
         <v>10.479900000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>138</v>
       </c>
@@ -1508,7 +1438,7 @@
         <v>12.328900000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>140</v>
       </c>
@@ -1525,7 +1455,7 @@
         <v>10.2415</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>142</v>
       </c>
@@ -1542,7 +1472,7 @@
         <v>9.6884399999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>143</v>
       </c>
@@ -1559,7 +1489,7 @@
         <v>14.805899999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>144</v>
       </c>
@@ -1576,7 +1506,7 @@
         <v>8.9763800000000007</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>149</v>
       </c>
@@ -1593,7 +1523,7 @@
         <v>16.354399999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>151</v>
       </c>
@@ -1610,7 +1540,7 @@
         <v>6.9594500000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>151</v>
       </c>
@@ -1627,7 +1557,7 @@
         <v>12.669600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>151</v>
       </c>
@@ -1644,7 +1574,7 @@
         <v>13.063599999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>152</v>
       </c>
@@ -1661,7 +1591,7 @@
         <v>11.8169</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>152</v>
       </c>
@@ -1678,7 +1608,7 @@
         <v>14.388999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>152</v>
       </c>
@@ -1695,7 +1625,7 @@
         <v>15.073600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>154</v>
       </c>
@@ -1712,7 +1642,7 @@
         <v>6.1757200000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>158</v>
       </c>
@@ -1729,7 +1659,7 @@
         <v>14.508800000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>158</v>
       </c>
@@ -1746,7 +1676,7 @@
         <v>15.7982</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>159</v>
       </c>
@@ -1763,7 +1693,7 @@
         <v>16.6401</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>163</v>
       </c>
@@ -1780,7 +1710,7 @@
         <v>16.354399999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>165</v>
       </c>
@@ -1797,7 +1727,7 @@
         <v>9.3509600000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>166</v>
       </c>
@@ -1814,7 +1744,7 @@
         <v>17.7578</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>170</v>
       </c>
@@ -1831,7 +1761,7 @@
         <v>12.7553</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>185</v>
       </c>
@@ -1848,7 +1778,7 @@
         <v>8.37134</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>194</v>
       </c>
@@ -1865,7 +1795,7 @@
         <v>9.0851000000000006</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>195</v>
       </c>
@@ -1882,7 +1812,7 @@
         <v>12.3185</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>196</v>
       </c>
@@ -1899,7 +1829,7 @@
         <v>9.6321999999999992</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>198</v>
       </c>
@@ -1916,7 +1846,7 @@
         <v>13.383699999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>199</v>
       </c>
@@ -1933,7 +1863,7 @@
         <v>6.85154</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>203</v>
       </c>
@@ -1950,7 +1880,7 @@
         <v>9.7564899999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>206</v>
       </c>
@@ -1967,7 +1897,7 @@
         <v>13.016</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>206</v>
       </c>
@@ -1984,7 +1914,7 @@
         <v>14.622299999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>208</v>
       </c>
@@ -2001,7 +1931,7 @@
         <v>14.456899999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>210</v>
       </c>
@@ -2018,7 +1948,7 @@
         <v>7.1613699999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>216</v>
       </c>
@@ -2035,7 +1965,7 @@
         <v>9.5548599999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>217</v>
       </c>
@@ -2052,7 +1982,7 @@
         <v>7.6016300000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>220</v>
       </c>
@@ -2069,7 +1999,7 @@
         <v>9.2812099999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>222</v>
       </c>
@@ -2086,7 +2016,7 @@
         <v>13.242900000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>223</v>
       </c>
@@ -2103,7 +2033,7 @@
         <v>10.6517</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>224</v>
       </c>
@@ -2120,7 +2050,7 @@
         <v>6.4725200000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>227</v>
       </c>
@@ -2137,7 +2067,7 @@
         <v>11.517099999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>229</v>
       </c>
@@ -2154,7 +2084,7 @@
         <v>7.3677400000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>230</v>
       </c>
@@ -2171,7 +2101,7 @@
         <v>17.084800000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>233</v>
       </c>
@@ -2188,7 +2118,7 @@
         <v>13.613099999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>236</v>
       </c>
@@ -2205,7 +2135,7 @@
         <v>8.2052399999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>236</v>
       </c>
@@ -2222,7 +2152,7 @@
         <v>12.511699999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>238</v>
       </c>
@@ -2239,7 +2169,7 @@
         <v>7.2075699999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>238</v>
       </c>
@@ -2256,7 +2186,7 @@
         <v>12.1976</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>240</v>
       </c>
@@ -2273,7 +2203,7 @@
         <v>8.7051099999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>240</v>
       </c>
@@ -2290,7 +2220,7 @@
         <v>8.7775599999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>240</v>
       </c>
@@ -2307,7 +2237,7 @@
         <v>9.0058699999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>240</v>
       </c>
@@ -2324,7 +2254,7 @@
         <v>16.438400000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>241</v>
       </c>
@@ -2341,7 +2271,7 @@
         <v>8.8750099999999996</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>242</v>
       </c>
@@ -2358,7 +2288,7 @@
         <v>11.967599999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>247</v>
       </c>
@@ -2375,7 +2305,7 @@
         <v>13.8918</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>247</v>
       </c>
@@ -2392,7 +2322,7 @@
         <v>14.4236</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>250</v>
       </c>
@@ -2409,7 +2339,7 @@
         <v>10.034000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>250</v>
       </c>
@@ -2426,7 +2356,7 @@
         <v>10.073399999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>256</v>
       </c>
@@ -2443,7 +2373,7 @@
         <v>11.5528</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>257</v>
       </c>
@@ -2460,7 +2390,7 @@
         <v>15.3293</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>262</v>
       </c>
@@ -2477,7 +2407,7 @@
         <v>8.9825999999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>264</v>
       </c>
@@ -2494,7 +2424,7 @@
         <v>7.8202199999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>266</v>
       </c>
@@ -2511,7 +2441,7 @@
         <v>8.9004100000000008</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>269</v>
       </c>
@@ -2528,7 +2458,7 @@
         <v>10.3302</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>272</v>
       </c>
@@ -2545,7 +2475,7 @@
         <v>17.159700000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>277</v>
       </c>
@@ -2562,7 +2492,7 @@
         <v>15.050700000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>279</v>
       </c>
@@ -2579,7 +2509,7 @@
         <v>13.936400000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>280</v>
       </c>
@@ -2596,7 +2526,7 @@
         <v>12.8698</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>289</v>
       </c>
@@ -2613,7 +2543,7 @@
         <v>10.3392</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>290</v>
       </c>
@@ -2630,7 +2560,7 @@
         <v>12.004</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>291</v>
       </c>
@@ -2647,7 +2577,7 @@
         <v>7.5587</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>291</v>
       </c>
@@ -2664,7 +2594,7 @@
         <v>9.0730000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>292</v>
       </c>
@@ -2681,7 +2611,7 @@
         <v>11.407999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>298</v>
       </c>
@@ -2698,7 +2628,7 @@
         <v>10.0212</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>301</v>
       </c>
@@ -2715,7 +2645,7 @@
         <v>8.9556699999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>304</v>
       </c>
@@ -2732,7 +2662,7 @@
         <v>9.3919999999999995</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>315</v>
       </c>
@@ -2749,7 +2679,7 @@
         <v>7.9198599999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>315</v>
       </c>
@@ -2766,7 +2696,7 @@
         <v>14.1622</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>320</v>
       </c>
@@ -2783,7 +2713,7 @@
         <v>9.5356799999999993</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>325</v>
       </c>
@@ -2800,7 +2730,7 @@
         <v>10.7042</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>326</v>
       </c>
@@ -2817,7 +2747,7 @@
         <v>17.3093</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>327</v>
       </c>
@@ -2834,7 +2764,7 @@
         <v>11.4991</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>334</v>
       </c>
@@ -2851,7 +2781,7 @@
         <v>12.889900000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>341</v>
       </c>
@@ -2868,7 +2798,7 @@
         <v>11.759</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>342</v>
       </c>
@@ -2885,7 +2815,7 @@
         <v>9.2096599999999995</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>342</v>
       </c>
@@ -2902,7 +2832,7 @@
         <v>9.8403200000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>342</v>
       </c>
@@ -2919,7 +2849,7 @@
         <v>16.027899999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>343</v>
       </c>
@@ -2936,7 +2866,7 @@
         <v>12.5373</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>349</v>
       </c>
@@ -2953,7 +2883,7 @@
         <v>11.076499999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>350</v>
       </c>
@@ -2970,7 +2900,7 @@
         <v>11.3047</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>354</v>
       </c>
@@ -2987,7 +2917,7 @@
         <v>9.9114299999999993</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3004,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3021,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3038,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10</v>
       </c>
@@ -3055,7 +2985,7 @@
         <v>13.805300000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10</v>
       </c>
@@ -3072,7 +3002,7 @@
         <v>17.974599999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>15</v>
       </c>
@@ -3089,7 +3019,7 @@
         <v>16.156600000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>18</v>
       </c>
@@ -3106,7 +3036,7 @@
         <v>19.963899999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>20</v>
       </c>
@@ -3123,7 +3053,7 @@
         <v>8.3429300000000008</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>32</v>
       </c>
@@ -3140,7 +3070,7 @@
         <v>17.3934</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>40</v>
       </c>
@@ -3157,7 +3087,7 @@
         <v>16.551200000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>47</v>
       </c>
@@ -3174,7 +3104,7 @@
         <v>12.9079</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>47</v>
       </c>
@@ -3191,7 +3121,7 @@
         <v>16.6403</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>48</v>
       </c>
@@ -3208,7 +3138,7 @@
         <v>14.5777</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>54</v>
       </c>
@@ -3225,7 +3155,7 @@
         <v>12.7278</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>55</v>
       </c>
@@ -3242,7 +3172,7 @@
         <v>10.3011</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>59</v>
       </c>
@@ -3259,7 +3189,7 @@
         <v>15.4537</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>60</v>
       </c>
@@ -3276,7 +3206,7 @@
         <v>13.1455</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>61</v>
       </c>
@@ -3293,7 +3223,7 @@
         <v>16.665299999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>66</v>
       </c>
@@ -3310,7 +3240,7 @@
         <v>9.7494300000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>67</v>
       </c>
@@ -3327,7 +3257,7 @@
         <v>9.8978900000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>69</v>
       </c>
@@ -3344,7 +3274,7 @@
         <v>8.58568</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>71</v>
       </c>
@@ -3361,7 +3291,7 @@
         <v>10.1587</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>71</v>
       </c>
@@ -3378,7 +3308,7 @@
         <v>13.4869</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>78</v>
       </c>
@@ -3395,7 +3325,7 @@
         <v>14.728400000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>79</v>
       </c>
@@ -3412,7 +3342,7 @@
         <v>7.8583999999999996</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>82</v>
       </c>
@@ -3429,7 +3359,7 @@
         <v>16.9023</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>83</v>
       </c>
@@ -3446,7 +3376,7 @@
         <v>8.8689099999999996</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>83</v>
       </c>
@@ -3463,7 +3393,7 @@
         <v>13.7318</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>93</v>
       </c>
@@ -3480,7 +3410,7 @@
         <v>16.276700000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>100</v>
       </c>
@@ -3497,7 +3427,7 @@
         <v>12.0947</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>102</v>
       </c>
@@ -3514,7 +3444,7 @@
         <v>12.3666</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>102</v>
       </c>
@@ -3531,7 +3461,7 @@
         <v>14.7979</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>108</v>
       </c>
@@ -3548,7 +3478,7 @@
         <v>15.9268</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>115</v>
       </c>
@@ -3565,7 +3495,7 @@
         <v>12.119300000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>118</v>
       </c>
@@ -3582,7 +3512,7 @@
         <v>11.503399999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>120</v>
       </c>
@@ -3599,7 +3529,7 @@
         <v>13.7308</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>122</v>
       </c>
@@ -3616,7 +3546,7 @@
         <v>11.6454</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>123</v>
       </c>
@@ -3633,7 +3563,7 @@
         <v>10.6965</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>124</v>
       </c>
@@ -3650,7 +3580,7 @@
         <v>13.195399999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>131</v>
       </c>
@@ -3667,7 +3597,7 @@
         <v>10.7536</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>137</v>
       </c>
@@ -3684,7 +3614,7 @@
         <v>8.6830400000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>138</v>
       </c>
@@ -3701,7 +3631,7 @@
         <v>12.4284</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>139</v>
       </c>
@@ -3718,7 +3648,7 @@
         <v>9.5091599999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>141</v>
       </c>
@@ -3735,7 +3665,7 @@
         <v>10.8354</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>144</v>
       </c>
@@ -3752,7 +3682,7 @@
         <v>9.9829500000000007</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>146</v>
       </c>
@@ -3769,7 +3699,7 @@
         <v>14.7074</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>148</v>
       </c>
@@ -3786,7 +3716,7 @@
         <v>11.8809</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>149</v>
       </c>
@@ -3803,7 +3733,7 @@
         <v>12.432399999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>151</v>
       </c>
@@ -3820,7 +3750,7 @@
         <v>8.6017899999999994</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>151</v>
       </c>
@@ -3837,7 +3767,7 @@
         <v>8.8788999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>151</v>
       </c>
@@ -3854,7 +3784,7 @@
         <v>15.020099999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>156</v>
       </c>
@@ -3871,7 +3801,7 @@
         <v>8.8696300000000008</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>158</v>
       </c>
@@ -3888,7 +3818,7 @@
         <v>10.366400000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>160</v>
       </c>
@@ -3905,7 +3835,7 @@
         <v>14.2637</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>163</v>
       </c>
@@ -3922,7 +3852,7 @@
         <v>11.358000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>173</v>
       </c>
@@ -3939,7 +3869,7 @@
         <v>10.113799999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>174</v>
       </c>
@@ -3956,7 +3886,7 @@
         <v>12.5793</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>176</v>
       </c>
@@ -3973,7 +3903,7 @@
         <v>8.9325299999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>180</v>
       </c>
@@ -3990,7 +3920,7 @@
         <v>13.7498</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>181</v>
       </c>
@@ -4007,7 +3937,7 @@
         <v>8.6830400000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>183</v>
       </c>
@@ -4024,7 +3954,7 @@
         <v>12.5349</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>185</v>
       </c>
@@ -4041,7 +3971,7 @@
         <v>6.9426800000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>190</v>
       </c>
@@ -4058,7 +3988,7 @@
         <v>12.0441</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>192</v>
       </c>
@@ -4075,7 +4005,7 @@
         <v>10.3813</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>192</v>
       </c>
@@ -4092,7 +4022,7 @@
         <v>10.9842</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>192</v>
       </c>
@@ -4109,7 +4039,7 @@
         <v>12.158099999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>193</v>
       </c>
@@ -4126,7 +4056,7 @@
         <v>7.3410500000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>194</v>
       </c>
@@ -4143,7 +4073,7 @@
         <v>10.0557</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>194</v>
       </c>
@@ -4160,7 +4090,7 @@
         <v>12.742599999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>197</v>
       </c>
@@ -4177,7 +4107,7 @@
         <v>10.785</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>198</v>
       </c>
@@ -4194,7 +4124,7 @@
         <v>8.6952300000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>200</v>
       </c>
@@ -4211,7 +4141,7 @@
         <v>15.592700000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>202</v>
       </c>
@@ -4228,7 +4158,7 @@
         <v>14.1759</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>204</v>
       </c>
@@ -4245,7 +4175,7 @@
         <v>14.057</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>204</v>
       </c>
@@ -4262,7 +4192,7 @@
         <v>14.257</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>209</v>
       </c>
@@ -4279,7 +4209,7 @@
         <v>12.284800000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>212</v>
       </c>
@@ -4296,7 +4226,7 @@
         <v>9.33751</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>215</v>
       </c>
@@ -4313,7 +4243,7 @@
         <v>12.1753</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>216</v>
       </c>
@@ -4330,7 +4260,7 @@
         <v>9.1124200000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>220</v>
       </c>
@@ -4347,7 +4277,7 @@
         <v>7.0305400000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>222</v>
       </c>
@@ -4364,7 +4294,7 @@
         <v>9.3544800000000006</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>225</v>
       </c>
@@ -4381,7 +4311,7 @@
         <v>16.119</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>226</v>
       </c>
@@ -4398,7 +4328,7 @@
         <v>10.7212</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>227</v>
       </c>
@@ -4415,7 +4345,7 @@
         <v>10.9095</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>227</v>
       </c>
@@ -4432,7 +4362,7 @@
         <v>11.805899999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>230</v>
       </c>
@@ -4449,7 +4379,7 @@
         <v>10.494999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>235</v>
       </c>
@@ -4466,7 +4396,7 @@
         <v>7.9995200000000004</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>236</v>
       </c>
@@ -4483,7 +4413,7 @@
         <v>9.4704899999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>237</v>
       </c>
@@ -4500,7 +4430,7 @@
         <v>12.6287</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>242</v>
       </c>
@@ -4517,7 +4447,7 @@
         <v>7.4804500000000003</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>248</v>
       </c>
@@ -4534,7 +4464,7 @@
         <v>12.348699999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>251</v>
       </c>
@@ -4551,7 +4481,7 @@
         <v>11.0273</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>253</v>
       </c>
@@ -4568,7 +4498,7 @@
         <v>13.1173</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>253</v>
       </c>
@@ -4585,7 +4515,7 @@
         <v>15.7166</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>257</v>
       </c>
@@ -4602,7 +4532,7 @@
         <v>13.306100000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>257</v>
       </c>
@@ -4619,7 +4549,7 @@
         <v>16.290700000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>260</v>
       </c>
@@ -4636,7 +4566,7 @@
         <v>9.5256600000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>263</v>
       </c>
@@ -4653,7 +4583,7 @@
         <v>10.1534</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>268</v>
       </c>
@@ -4670,7 +4600,7 @@
         <v>16.026700000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>271</v>
       </c>
@@ -4687,7 +4617,7 @@
         <v>16.246700000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>275</v>
       </c>
@@ -4704,7 +4634,7 @@
         <v>10.3201</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>275</v>
       </c>
@@ -4721,7 +4651,7 @@
         <v>10.7898</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>277</v>
       </c>
@@ -4738,7 +4668,7 @@
         <v>7.97234</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>278</v>
       </c>
@@ -4755,7 +4685,7 @@
         <v>9.7824899999999992</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>278</v>
       </c>
@@ -4772,7 +4702,7 @@
         <v>13.1654</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>281</v>
       </c>
@@ -4789,7 +4719,7 @@
         <v>9.0391100000000009</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>281</v>
       </c>
@@ -4806,7 +4736,7 @@
         <v>17.5976</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>282</v>
       </c>
@@ -4823,7 +4753,7 @@
         <v>9.9853000000000005</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>284</v>
       </c>
@@ -4840,7 +4770,7 @@
         <v>16.354700000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>289</v>
       </c>
@@ -4857,7 +4787,7 @@
         <v>11.7578</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>289</v>
       </c>
@@ -4874,7 +4804,7 @@
         <v>15.0214</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>292</v>
       </c>
@@ -4891,7 +4821,7 @@
         <v>17.242699999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>296</v>
       </c>
@@ -4908,7 +4838,7 @@
         <v>8.5278799999999997</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>296</v>
       </c>
@@ -4925,7 +4855,7 @@
         <v>12.0344</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>303</v>
       </c>
@@ -4942,7 +4872,7 @@
         <v>13.218400000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>305</v>
       </c>
@@ -4959,7 +4889,7 @@
         <v>8.9127500000000008</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>312</v>
       </c>
@@ -4976,7 +4906,7 @@
         <v>17.424499999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>313</v>
       </c>
@@ -4993,7 +4923,7 @@
         <v>13.7058</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>314</v>
       </c>
@@ -5010,7 +4940,7 @@
         <v>8.5174199999999995</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>314</v>
       </c>
@@ -5027,7 +4957,7 @@
         <v>8.8325800000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>314</v>
       </c>
@@ -5044,7 +4974,7 @@
         <v>13.341200000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>316</v>
       </c>
@@ -5061,7 +4991,7 @@
         <v>13.5459</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>316</v>
       </c>
@@ -5078,7 +5008,7 @@
         <v>16.009599999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>318</v>
       </c>
@@ -5095,7 +5025,7 @@
         <v>7.53864</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>319</v>
       </c>
@@ -5112,7 +5042,7 @@
         <v>9.4378299999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>323</v>
       </c>
@@ -5129,7 +5059,7 @@
         <v>9.1501599999999996</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>324</v>
       </c>
@@ -5146,7 +5076,7 @@
         <v>8.3242799999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>325</v>
       </c>
@@ -5163,7 +5093,7 @@
         <v>7.7664</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>325</v>
       </c>
@@ -5180,7 +5110,7 @@
         <v>11.519</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>328</v>
       </c>
@@ -5197,7 +5127,7 @@
         <v>10.416600000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>330</v>
       </c>
@@ -5214,7 +5144,7 @@
         <v>12.209899999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>334</v>
       </c>
@@ -5231,7 +5161,7 @@
         <v>9.4133099999999992</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>335</v>
       </c>
@@ -5248,7 +5178,7 @@
         <v>13.9056</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>340</v>
       </c>
@@ -5265,7 +5195,7 @@
         <v>12.583299999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>341</v>
       </c>
@@ -5282,7 +5212,7 @@
         <v>16.7788</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>342</v>
       </c>
@@ -5299,7 +5229,7 @@
         <v>7.6815300000000004</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>342</v>
       </c>
@@ -5316,7 +5246,7 @@
         <v>8.6998800000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>345</v>
       </c>
@@ -5333,7 +5263,7 @@
         <v>11.680199999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>345</v>
       </c>
@@ -5350,7 +5280,7 @@
         <v>14.4917</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>348</v>
       </c>
@@ -5367,7 +5297,7 @@
         <v>17.0167</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>354</v>
       </c>
@@ -5384,7 +5314,7 @@
         <v>12.6599</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>360</v>
       </c>
@@ -5401,7 +5331,7 @@
         <v>8.6238399999999995</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>361</v>
       </c>
@@ -5418,7 +5348,7 @@
         <v>13.3553</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>363</v>
       </c>
@@ -5435,7 +5365,7 @@
         <v>10.3673</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>365</v>
       </c>
@@ -5452,7 +5382,7 @@
         <v>14.6287</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>365</v>
       </c>
@@ -5469,7 +5399,7 @@
         <v>14.8797</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -5486,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>5</v>
       </c>
@@ -5503,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>8</v>
       </c>
@@ -5520,7 +5450,7 @@
         <v>9.60379</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>10</v>
       </c>
@@ -5537,7 +5467,7 @@
         <v>10.8354</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>10</v>
       </c>
@@ -5554,7 +5484,7 @@
         <v>18.8108</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>11</v>
       </c>
@@ -5571,7 +5501,7 @@
         <v>20.977699999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>12</v>
       </c>
@@ -5588,7 +5518,7 @@
         <v>15.3003</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>23</v>
       </c>
@@ -5605,7 +5535,7 @@
         <v>15.9452</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>24</v>
       </c>
@@ -5622,7 +5552,7 @@
         <v>9.9459400000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>24</v>
       </c>
@@ -5639,7 +5569,7 @@
         <v>16.617699999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>26</v>
       </c>
@@ -5656,7 +5586,7 @@
         <v>8.7466500000000007</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>26</v>
       </c>
@@ -5673,7 +5603,7 @@
         <v>10.891</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>31</v>
       </c>
@@ -5690,7 +5620,7 @@
         <v>8.4198400000000007</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>32</v>
       </c>
@@ -5707,7 +5637,7 @@
         <v>18.886299999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>33</v>
       </c>
@@ -5724,7 +5654,7 @@
         <v>8.5642899999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>33</v>
       </c>
@@ -5741,7 +5671,7 @@
         <v>17.192699999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>38</v>
       </c>
@@ -5758,7 +5688,7 @@
         <v>11.987399999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>39</v>
       </c>
@@ -5775,7 +5705,7 @@
         <v>14.7942</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>40</v>
       </c>
@@ -5792,7 +5722,7 @@
         <v>11.0571</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>40</v>
       </c>
@@ -5809,7 +5739,7 @@
         <v>14.1265</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>43</v>
       </c>
@@ -5826,7 +5756,7 @@
         <v>8.4477799999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>43</v>
       </c>
@@ -5843,7 +5773,7 @@
         <v>12.121600000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>44</v>
       </c>
@@ -5860,7 +5790,7 @@
         <v>13.978999999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>47</v>
       </c>
@@ -5877,7 +5807,7 @@
         <v>10.610799999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>49</v>
       </c>
@@ -5894,7 +5824,7 @@
         <v>10.791600000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>50</v>
       </c>
@@ -5911,7 +5841,7 @@
         <v>9.6854800000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>53</v>
       </c>
@@ -5928,7 +5858,7 @@
         <v>14.716900000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>54</v>
       </c>
@@ -5945,7 +5875,7 @@
         <v>7.7967399999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>58</v>
       </c>
@@ -5962,7 +5892,7 @@
         <v>18.907299999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>60</v>
       </c>
@@ -5979,7 +5909,7 @@
         <v>15.3323</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>61</v>
       </c>
@@ -5996,7 +5926,7 @@
         <v>10.938000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>61</v>
       </c>
@@ -6013,7 +5943,7 @@
         <v>17.246200000000002</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>65</v>
       </c>
@@ -6030,7 +5960,7 @@
         <v>15.812099999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>66</v>
       </c>
@@ -6047,7 +5977,7 @@
         <v>11.124700000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>66</v>
       </c>
@@ -6064,7 +5994,7 @@
         <v>13.8024</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>68</v>
       </c>
@@ -6081,7 +6011,7 @@
         <v>8.0605799999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>68</v>
       </c>
@@ -6098,7 +6028,7 @@
         <v>10.595800000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>68</v>
       </c>
@@ -6115,7 +6045,7 @@
         <v>13.2224</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>71</v>
       </c>
@@ -6132,7 +6062,7 @@
         <v>9.7696500000000004</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>73</v>
       </c>
@@ -6149,7 +6079,7 @@
         <v>19.978400000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>75</v>
       </c>
@@ -6166,7 +6096,7 @@
         <v>12.8378</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>79</v>
       </c>
@@ -6183,7 +6113,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>80</v>
       </c>
@@ -6200,7 +6130,7 @@
         <v>14.9663</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>89</v>
       </c>
@@ -6217,7 +6147,7 @@
         <v>12.231999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>92</v>
       </c>
@@ -6234,7 +6164,7 @@
         <v>18.326599999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>93</v>
       </c>
@@ -6251,7 +6181,7 @@
         <v>15.5892</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>94</v>
       </c>
@@ -6268,7 +6198,7 @@
         <v>9.2486700000000006</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>94</v>
       </c>
@@ -6285,7 +6215,7 @@
         <v>13.032999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>94</v>
       </c>
@@ -6302,7 +6232,7 @@
         <v>15.508599999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>96</v>
       </c>
@@ -6319,7 +6249,7 @@
         <v>7.9603900000000003</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>98</v>
       </c>
@@ -6336,7 +6266,7 @@
         <v>13.2052</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>99</v>
       </c>
@@ -6353,7 +6283,7 @@
         <v>9.4104299999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>99</v>
       </c>
@@ -6370,7 +6300,7 @@
         <v>10.5008</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>99</v>
       </c>
@@ -6387,7 +6317,7 @@
         <v>16.3749</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>100</v>
       </c>
@@ -6404,7 +6334,7 @@
         <v>14.7826</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>101</v>
       </c>
@@ -6421,7 +6351,7 @@
         <v>10.2377</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>105</v>
       </c>
@@ -6438,7 +6368,7 @@
         <v>11.7248</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>106</v>
       </c>
@@ -6455,7 +6385,7 @@
         <v>17.371200000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>107</v>
       </c>
@@ -6472,7 +6402,7 @@
         <v>12.1663</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>108</v>
       </c>
@@ -6489,7 +6419,7 @@
         <v>19.651599999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>109</v>
       </c>
@@ -6506,7 +6436,7 @@
         <v>15.4217</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>109</v>
       </c>
@@ -6523,7 +6453,7 @@
         <v>17.6174</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>112</v>
       </c>
@@ -6540,7 +6470,7 @@
         <v>14.964399999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>115</v>
       </c>
@@ -6557,7 +6487,7 @@
         <v>13.6401</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>123</v>
       </c>
@@ -6574,7 +6504,7 @@
         <v>11.661099999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>126</v>
       </c>
@@ -6591,7 +6521,7 @@
         <v>8.99986</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>126</v>
       </c>
@@ -6608,7 +6538,7 @@
         <v>10.5205</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>128</v>
       </c>
@@ -6625,7 +6555,7 @@
         <v>7.04786</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>128</v>
       </c>
@@ -6642,7 +6572,7 @@
         <v>9.1245700000000003</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>130</v>
       </c>
@@ -6659,7 +6589,7 @@
         <v>12.757400000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>137</v>
       </c>
@@ -6676,7 +6606,7 @@
         <v>15.5702</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>141</v>
       </c>
@@ -6693,7 +6623,7 @@
         <v>11.1471</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>144</v>
       </c>
@@ -6710,7 +6640,7 @@
         <v>15.386900000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>147</v>
       </c>
@@ -6727,7 +6657,7 @@
         <v>14.4292</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>149</v>
       </c>
@@ -6744,7 +6674,7 @@
         <v>13.801299999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>155</v>
       </c>
@@ -6761,7 +6691,7 @@
         <v>12.4377</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>158</v>
       </c>
@@ -6778,7 +6708,7 @@
         <v>13.4444</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>161</v>
       </c>
@@ -6795,7 +6725,7 @@
         <v>9.9989699999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>163</v>
       </c>
@@ -6812,7 +6742,7 @@
         <v>7.9569799999999997</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>163</v>
       </c>
@@ -6829,7 +6759,7 @@
         <v>15.378500000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>164</v>
       </c>
@@ -6846,7 +6776,7 @@
         <v>10.4771</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>166</v>
       </c>
@@ -6863,7 +6793,7 @@
         <v>8.8497699999999995</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>169</v>
       </c>
@@ -6880,7 +6810,7 @@
         <v>13.061199999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>179</v>
       </c>
@@ -6897,7 +6827,7 @@
         <v>8.8616200000000003</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>180</v>
       </c>
@@ -6914,7 +6844,7 @@
         <v>6.6685499999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>186</v>
       </c>
@@ -6931,7 +6861,7 @@
         <v>10.968400000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>186</v>
       </c>
@@ -6948,7 +6878,7 @@
         <v>11.946300000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>186</v>
       </c>
@@ -6965,7 +6895,7 @@
         <v>17.791399999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>190</v>
       </c>
@@ -6982,7 +6912,7 @@
         <v>7.5544000000000002</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>191</v>
       </c>
@@ -6999,7 +6929,7 @@
         <v>11.436999999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>191</v>
       </c>
@@ -7016,7 +6946,7 @@
         <v>11.914300000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>194</v>
       </c>
@@ -7033,7 +6963,7 @@
         <v>13.4937</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>197</v>
       </c>
@@ -7050,7 +6980,7 @@
         <v>14.374499999999999</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>217</v>
       </c>
@@ -7067,7 +6997,7 @@
         <v>10.640700000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>217</v>
       </c>
@@ -7084,7 +7014,7 @@
         <v>13.435499999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>217</v>
       </c>
@@ -7101,7 +7031,7 @@
         <v>14.2239</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>217</v>
       </c>
@@ -7118,7 +7048,7 @@
         <v>16.1785</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>219</v>
       </c>
@@ -7135,7 +7065,7 @@
         <v>15.247</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>224</v>
       </c>
@@ -7152,7 +7082,7 @@
         <v>7.4187399999999997</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>235</v>
       </c>
@@ -7169,7 +7099,7 @@
         <v>10.0083</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>236</v>
       </c>
@@ -7186,7 +7116,7 @@
         <v>7.5459699999999996</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>238</v>
       </c>
@@ -7203,7 +7133,7 @@
         <v>8.7156500000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>238</v>
       </c>
@@ -7220,7 +7150,7 @@
         <v>10.561500000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>240</v>
       </c>
@@ -7237,7 +7167,7 @@
         <v>10.8766</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>240</v>
       </c>
@@ -7254,7 +7184,7 @@
         <v>12.961499999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>241</v>
       </c>
@@ -7271,7 +7201,7 @@
         <v>11.9168</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>242</v>
       </c>
@@ -7288,7 +7218,7 @@
         <v>9.9422499999999996</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>246</v>
       </c>
@@ -7305,7 +7235,7 @@
         <v>7.2141599999999997</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>247</v>
       </c>
@@ -7322,7 +7252,7 @@
         <v>15.411099999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>249</v>
       </c>
@@ -7339,7 +7269,7 @@
         <v>18.396699999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>250</v>
       </c>
@@ -7356,7 +7286,7 @@
         <v>12.83</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>256</v>
       </c>
@@ -7373,7 +7303,7 @@
         <v>10.838900000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>256</v>
       </c>
@@ -7390,7 +7320,7 @@
         <v>11.3254</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>259</v>
       </c>
@@ -7407,7 +7337,7 @@
         <v>7.9270100000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>273</v>
       </c>
@@ -7424,7 +7354,7 @@
         <v>7.8135000000000003</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>273</v>
       </c>
@@ -7441,7 +7371,7 @@
         <v>14.024100000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>276</v>
       </c>
@@ -7458,7 +7388,7 @@
         <v>16.186699999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>277</v>
       </c>
@@ -7475,7 +7405,7 @@
         <v>14.9346</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>278</v>
       </c>
@@ -7492,7 +7422,7 @@
         <v>8.9403900000000007</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>280</v>
       </c>
@@ -7509,7 +7439,7 @@
         <v>13.225199999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>282</v>
       </c>
@@ -7526,7 +7456,7 @@
         <v>17.298999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>287</v>
       </c>
@@ -7543,7 +7473,7 @@
         <v>9.3932199999999995</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>288</v>
       </c>
@@ -7560,7 +7490,7 @@
         <v>11.1135</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>289</v>
       </c>
@@ -7577,7 +7507,7 @@
         <v>12.2547</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>294</v>
       </c>
@@ -7594,7 +7524,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>297</v>
       </c>
@@ -7611,7 +7541,7 @@
         <v>10.568199999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>298</v>
       </c>
@@ -7628,7 +7558,7 @@
         <v>17.5595</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>301</v>
       </c>
@@ -7645,7 +7575,7 @@
         <v>16.215699999999998</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>303</v>
       </c>
@@ -7662,7 +7592,7 @@
         <v>12.8459</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>303</v>
       </c>
@@ -7679,7 +7609,7 @@
         <v>15.207700000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>304</v>
       </c>
@@ -7696,7 +7626,7 @@
         <v>13.992100000000001</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>305</v>
       </c>
@@ -7713,7 +7643,7 @@
         <v>14.2738</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>305</v>
       </c>
@@ -7730,7 +7660,7 @@
         <v>15.824</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>309</v>
       </c>
@@ -7747,7 +7677,7 @@
         <v>9.9354300000000002</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>315</v>
       </c>
@@ -7764,7 +7694,7 @@
         <v>15.449199999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>323</v>
       </c>
@@ -7781,7 +7711,7 @@
         <v>9.8817199999999996</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>326</v>
       </c>
@@ -7798,7 +7728,7 @@
         <v>16.222100000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>327</v>
       </c>
@@ -7815,7 +7745,7 @@
         <v>13.418900000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>330</v>
       </c>
@@ -7832,7 +7762,7 @@
         <v>15.9597</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>333</v>
       </c>
@@ -7849,7 +7779,7 @@
         <v>12.7623</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>340</v>
       </c>
@@ -7866,7 +7796,7 @@
         <v>9.64682</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>341</v>
       </c>
@@ -7883,7 +7813,7 @@
         <v>8.3347099999999994</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>341</v>
       </c>
@@ -7900,7 +7830,7 @@
         <v>10.2342</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>341</v>
       </c>
@@ -7917,7 +7847,7 @@
         <v>14.5564</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>345</v>
       </c>
@@ -7934,7 +7864,7 @@
         <v>7.0576299999999996</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>345</v>
       </c>
@@ -7951,7 +7881,7 @@
         <v>14.9819</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>351</v>
       </c>
@@ -7968,7 +7898,7 @@
         <v>7.8433000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>354</v>
       </c>
